--- a/predicted_factors_matrix_9.xlsx
+++ b/predicted_factors_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,50 +437,80 @@
       <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>-5.530608004071357</v>
       </c>
+      <c r="B2" t="n">
+        <v>-5.328370792723048</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>-1.181417640058193</v>
       </c>
+      <c r="B3" t="n">
+        <v>-1.134032615629251</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>-0.3341830441150748</v>
       </c>
+      <c r="B4" t="n">
+        <v>-0.194609480451419</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>-1.172809036889829</v>
       </c>
+      <c r="B5" t="n">
+        <v>-0.7524480139950284</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>0.1450685548639447</v>
       </c>
+      <c r="B6" t="n">
+        <v>0.07580498463246929</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>0.2018418462525772</v>
       </c>
+      <c r="B7" t="n">
+        <v>0.1468105929441677</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>0.3462887571469211</v>
       </c>
+      <c r="B8" t="n">
+        <v>0.2380027749815277</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>0.09120052756755795</v>
       </c>
+      <c r="B9" t="n">
+        <v>0.03188963527091888</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>0.03231742765321593</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.03101384518214472</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_9.xlsx
+++ b/predicted_factors_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,6 +440,9 @@
       <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -448,6 +451,9 @@
       <c r="B2" t="n">
         <v>-5.328370792723048</v>
       </c>
+      <c r="C2" t="n">
+        <v>-5.030479892299043</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -456,6 +462,9 @@
       <c r="B3" t="n">
         <v>-1.134032615629251</v>
       </c>
+      <c r="C3" t="n">
+        <v>-1.153235334261761</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -464,6 +473,9 @@
       <c r="B4" t="n">
         <v>-0.194609480451419</v>
       </c>
+      <c r="C4" t="n">
+        <v>-0.07292569980107731</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -472,6 +484,9 @@
       <c r="B5" t="n">
         <v>-0.7524480139950284</v>
       </c>
+      <c r="C5" t="n">
+        <v>-0.417749988516372</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -480,6 +495,9 @@
       <c r="B6" t="n">
         <v>0.07580498463246929</v>
       </c>
+      <c r="C6" t="n">
+        <v>0.01457436480836208</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -488,6 +506,9 @@
       <c r="B7" t="n">
         <v>0.1468105929441677</v>
       </c>
+      <c r="C7" t="n">
+        <v>0.1039564587721915</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -496,6 +517,9 @@
       <c r="B8" t="n">
         <v>0.2380027749815277</v>
       </c>
+      <c r="C8" t="n">
+        <v>0.1352692197136115</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -504,6 +528,9 @@
       <c r="B9" t="n">
         <v>0.03188963527091888</v>
       </c>
+      <c r="C9" t="n">
+        <v>0.02838054686518928</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -511,6 +538,9 @@
       </c>
       <c r="B10" t="n">
         <v>0.03101384518214472</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.02323175602225529</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_9.xlsx
+++ b/predicted_factors_matrix_9.xlsx
@@ -452,7 +452,7 @@
         <v>-5.328370792723048</v>
       </c>
       <c r="C2" t="n">
-        <v>-5.030479892299043</v>
+        <v>-5.009525469530934</v>
       </c>
     </row>
     <row r="3">
@@ -463,7 +463,7 @@
         <v>-1.134032615629251</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.153235334261761</v>
+        <v>-1.150069070561413</v>
       </c>
     </row>
     <row r="4">
@@ -474,7 +474,7 @@
         <v>-0.194609480451419</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.07292569980107731</v>
+        <v>-0.06193845495403641</v>
       </c>
     </row>
     <row r="5">
@@ -485,7 +485,7 @@
         <v>-0.7524480139950284</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.417749988516372</v>
+        <v>-0.4057216945391336</v>
       </c>
     </row>
     <row r="6">
@@ -496,7 +496,7 @@
         <v>0.07580498463246929</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01457436480836208</v>
+        <v>0.0133888005757794</v>
       </c>
     </row>
     <row r="7">
@@ -507,7 +507,7 @@
         <v>0.1468105929441677</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1039564587721915</v>
+        <v>0.1024167791172677</v>
       </c>
     </row>
     <row r="8">
@@ -518,7 +518,7 @@
         <v>0.2380027749815277</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1352692197136115</v>
+        <v>0.1324278584973791</v>
       </c>
     </row>
     <row r="9">
@@ -529,7 +529,7 @@
         <v>0.03188963527091888</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02838054686518928</v>
+        <v>0.02750117391858695</v>
       </c>
     </row>
     <row r="10">
@@ -540,7 +540,7 @@
         <v>0.03101384518214472</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02323175602225529</v>
+        <v>0.02290428449143454</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_9.xlsx
+++ b/predicted_factors_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,6 +443,12 @@
       <c r="C1" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -452,7 +458,13 @@
         <v>-5.328370792723048</v>
       </c>
       <c r="C2" t="n">
-        <v>-5.009525469530934</v>
+        <v>-5.030479892299043</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-4.700423608398296</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-4.336375677541507</v>
       </c>
     </row>
     <row r="3">
@@ -463,7 +475,13 @@
         <v>-1.134032615629251</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.150069070561413</v>
+        <v>-1.153235334261761</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-1.154630231040654</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-1.134646576557121</v>
       </c>
     </row>
     <row r="4">
@@ -474,7 +492,13 @@
         <v>-0.194609480451419</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.06193845495403641</v>
+        <v>-0.07292569980107731</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.02093359320803632</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.09358456433631321</v>
       </c>
     </row>
     <row r="5">
@@ -485,7 +509,13 @@
         <v>-0.7524480139950284</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.4057216945391336</v>
+        <v>-0.417749988516372</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.1565149916917322</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.05089419996022063</v>
       </c>
     </row>
     <row r="6">
@@ -496,7 +526,13 @@
         <v>0.07580498463246929</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0133888005757794</v>
+        <v>0.01457436480836208</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.04514720434098682</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.09996768479672546</v>
       </c>
     </row>
     <row r="7">
@@ -507,7 +543,13 @@
         <v>0.1468105929441677</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1024167791172677</v>
+        <v>0.1039564587721915</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.06550401096984124</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.02827358676505631</v>
       </c>
     </row>
     <row r="8">
@@ -518,7 +560,13 @@
         <v>0.2380027749815277</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1324278584973791</v>
+        <v>0.1352692197136115</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0397665396836725</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.05068768714866342</v>
       </c>
     </row>
     <row r="9">
@@ -529,7 +577,13 @@
         <v>0.03188963527091888</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02750117391858695</v>
+        <v>0.02838054686518928</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.024635519709972</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.02148294890355889</v>
       </c>
     </row>
     <row r="10">
@@ -540,7 +594,13 @@
         <v>0.03101384518214472</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02290428449143454</v>
+        <v>0.02323175602225529</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.01754457296797431</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.01323784340406731</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_9.xlsx
+++ b/predicted_factors_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,9 @@
       <c r="E1" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -466,6 +469,9 @@
       <c r="E2" t="n">
         <v>-4.336375677541507</v>
       </c>
+      <c r="F2" t="n">
+        <v>-3.950455529591155</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -483,6 +489,9 @@
       <c r="E3" t="n">
         <v>-1.134646576557121</v>
       </c>
+      <c r="F3" t="n">
+        <v>-1.097051866110898</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -500,6 +509,9 @@
       <c r="E4" t="n">
         <v>0.09358456433631321</v>
       </c>
+      <c r="F4" t="n">
+        <v>0.1466187161385259</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -517,6 +529,9 @@
       <c r="E5" t="n">
         <v>0.05089419996022063</v>
       </c>
+      <c r="F5" t="n">
+        <v>0.2109241129564272</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -534,6 +549,9 @@
       <c r="E6" t="n">
         <v>-0.09996768479672546</v>
       </c>
+      <c r="F6" t="n">
+        <v>-0.1490088351145499</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -551,6 +569,9 @@
       <c r="E7" t="n">
         <v>0.02827358676505631</v>
       </c>
+      <c r="F7" t="n">
+        <v>-0.006521043573004374</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -568,6 +589,9 @@
       <c r="E8" t="n">
         <v>-0.05068768714866342</v>
       </c>
+      <c r="F8" t="n">
+        <v>-0.1338202471267793</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -585,6 +609,9 @@
       <c r="E9" t="n">
         <v>0.02148294890355889</v>
       </c>
+      <c r="F9" t="n">
+        <v>0.01860349787077274</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -601,6 +628,9 @@
       </c>
       <c r="E10" t="n">
         <v>0.01323784340406731</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0102347119214408</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_9.xlsx
+++ b/predicted_factors_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,6 +452,9 @@
       <c r="F1" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -472,6 +475,9 @@
       <c r="F2" t="n">
         <v>-3.950455529591155</v>
       </c>
+      <c r="G2" t="n">
+        <v>-3.553497713080052</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -492,6 +498,9 @@
       <c r="F3" t="n">
         <v>-1.097051866110898</v>
       </c>
+      <c r="G3" t="n">
+        <v>-1.045388900943223</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -512,6 +521,9 @@
       <c r="F4" t="n">
         <v>0.1466187161385259</v>
       </c>
+      <c r="G4" t="n">
+        <v>0.1817449815787965</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -532,6 +544,9 @@
       <c r="F5" t="n">
         <v>0.2109241129564272</v>
       </c>
+      <c r="G5" t="n">
+        <v>0.3297908595078748</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -552,6 +567,9 @@
       <c r="F6" t="n">
         <v>-0.1490088351145499</v>
       </c>
+      <c r="G6" t="n">
+        <v>-0.191656843984942</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -572,6 +590,9 @@
       <c r="F7" t="n">
         <v>-0.006521043573004374</v>
       </c>
+      <c r="G7" t="n">
+        <v>-0.03829294907903721</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -592,6 +613,9 @@
       <c r="F8" t="n">
         <v>-0.1338202471267793</v>
       </c>
+      <c r="G8" t="n">
+        <v>-0.2079686598623873</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -612,6 +636,9 @@
       <c r="F9" t="n">
         <v>0.01860349787077274</v>
       </c>
+      <c r="G9" t="n">
+        <v>0.01603477798516651</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -631,6 +658,9 @@
       </c>
       <c r="F10" t="n">
         <v>0.0102347119214408</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.008247507822965183</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_9.xlsx
+++ b/predicted_factors_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,9 @@
       <c r="G1" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -478,6 +481,9 @@
       <c r="G2" t="n">
         <v>-3.553497713080052</v>
       </c>
+      <c r="H2" t="n">
+        <v>-3.15503062139205</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -501,6 +507,9 @@
       <c r="G3" t="n">
         <v>-1.045388900943223</v>
       </c>
+      <c r="H3" t="n">
+        <v>-0.9829553436526726</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -524,6 +533,9 @@
       <c r="G4" t="n">
         <v>0.1817449815787965</v>
       </c>
+      <c r="H4" t="n">
+        <v>0.2007490224277063</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -547,6 +559,9 @@
       <c r="G5" t="n">
         <v>0.3297908595078748</v>
       </c>
+      <c r="H5" t="n">
+        <v>0.4133323189062815</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -570,6 +585,9 @@
       <c r="G6" t="n">
         <v>-0.191656843984942</v>
       </c>
+      <c r="H6" t="n">
+        <v>-0.2275728780585662</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -593,6 +611,9 @@
       <c r="G7" t="n">
         <v>-0.03829294907903721</v>
       </c>
+      <c r="H7" t="n">
+        <v>-0.06661050820415802</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -616,6 +637,9 @@
       <c r="G8" t="n">
         <v>-0.2079686598623873</v>
       </c>
+      <c r="H8" t="n">
+        <v>-0.2721048309664336</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -639,6 +663,9 @@
       <c r="G9" t="n">
         <v>0.01603477798516651</v>
       </c>
+      <c r="H9" t="n">
+        <v>0.01375546110951261</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -661,6 +688,9 @@
       </c>
       <c r="G10" t="n">
         <v>0.008247507822965183</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.007063079606881683</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_9.xlsx
+++ b/predicted_factors_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,6 +458,9 @@
       <c r="H1" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -484,6 +487,9 @@
       <c r="H2" t="n">
         <v>-3.15503062139205</v>
       </c>
+      <c r="I2" t="n">
+        <v>-2.763210783570026</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -510,6 +516,9 @@
       <c r="H3" t="n">
         <v>-0.9829553436526726</v>
       </c>
+      <c r="I3" t="n">
+        <v>-0.9128004562552249</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -536,6 +545,9 @@
       <c r="H4" t="n">
         <v>0.2007490224277063</v>
       </c>
+      <c r="I4" t="n">
+        <v>0.2054742098644752</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -562,6 +574,9 @@
       <c r="H5" t="n">
         <v>0.4133323189062815</v>
       </c>
+      <c r="I5" t="n">
+        <v>0.4669900651602608</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -588,6 +603,9 @@
       <c r="H6" t="n">
         <v>-0.2275728780585662</v>
       </c>
+      <c r="I6" t="n">
+        <v>-0.2566527086667095</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -614,6 +632,9 @@
       <c r="H7" t="n">
         <v>-0.06661050820415802</v>
       </c>
+      <c r="I7" t="n">
+        <v>-0.09119070822013715</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -640,6 +661,9 @@
       <c r="H8" t="n">
         <v>-0.2721048309664336</v>
       </c>
+      <c r="I8" t="n">
+        <v>-0.325727176869587</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -666,6 +690,9 @@
       <c r="H9" t="n">
         <v>0.01375546110951261</v>
       </c>
+      <c r="I9" t="n">
+        <v>0.01174707840914628</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -691,6 +718,9 @@
       </c>
       <c r="H10" t="n">
         <v>0.007063079606881683</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.006492797844874412</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_9.xlsx
+++ b/predicted_factors_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,6 +461,9 @@
       <c r="I1" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -490,6 +493,9 @@
       <c r="I2" t="n">
         <v>-2.763210783570026</v>
       </c>
+      <c r="J2" t="n">
+        <v>-2.384824898665891</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -519,6 +525,9 @@
       <c r="I3" t="n">
         <v>-0.9128004562552249</v>
       </c>
+      <c r="J3" t="n">
+        <v>-0.8376870439506521</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -548,6 +557,9 @@
       <c r="I4" t="n">
         <v>0.2054742098644752</v>
       </c>
+      <c r="J4" t="n">
+        <v>0.1977846693575841</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -577,6 +589,9 @@
       <c r="I5" t="n">
         <v>0.4669900651602608</v>
       </c>
+      <c r="J5" t="n">
+        <v>0.4957865095536825</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -606,6 +621,9 @@
       <c r="I6" t="n">
         <v>-0.2566527086667095</v>
       </c>
+      <c r="J6" t="n">
+        <v>-0.2789906883134832</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -635,6 +653,9 @@
       <c r="I7" t="n">
         <v>-0.09119070822013715</v>
       </c>
+      <c r="J7" t="n">
+        <v>-0.1118761340061069</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -664,6 +685,9 @@
       <c r="I8" t="n">
         <v>-0.325727176869587</v>
       </c>
+      <c r="J8" t="n">
+        <v>-0.3687691287654404</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -693,6 +717,9 @@
       <c r="I9" t="n">
         <v>0.01174707840914628</v>
       </c>
+      <c r="J9" t="n">
+        <v>0.009990017010588046</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -721,6 +748,9 @@
       </c>
       <c r="I10" t="n">
         <v>0.006492797844874412</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.006375993279965705</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_9.xlsx
+++ b/predicted_factors_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,9 @@
       <c r="J1" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -496,6 +499,9 @@
       <c r="J2" t="n">
         <v>-2.384824898665891</v>
       </c>
+      <c r="K2" t="n">
+        <v>-2.025330643747945</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -528,6 +534,9 @@
       <c r="J3" t="n">
         <v>-0.8376870439506521</v>
       </c>
+      <c r="K3" t="n">
+        <v>-0.7600641086290955</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -560,6 +569,9 @@
       <c r="J4" t="n">
         <v>0.1977846693575841</v>
       </c>
+      <c r="K4" t="n">
+        <v>0.1795264115558373</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -592,6 +604,9 @@
       <c r="J5" t="n">
         <v>0.4957865095536825</v>
       </c>
+      <c r="K5" t="n">
+        <v>0.5043081513480835</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -624,6 +639,9 @@
       <c r="J6" t="n">
         <v>-0.2789906883134832</v>
       </c>
+      <c r="K6" t="n">
+        <v>-0.2948488521526653</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -656,6 +674,9 @@
       <c r="J7" t="n">
         <v>-0.1118761340061069</v>
       </c>
+      <c r="K7" t="n">
+        <v>-0.1286248163255662</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -688,6 +709,9 @@
       <c r="J8" t="n">
         <v>-0.3687691287654404</v>
       </c>
+      <c r="K8" t="n">
+        <v>-0.4015087398479374</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -720,6 +744,9 @@
       <c r="J9" t="n">
         <v>0.009990017010588046</v>
       </c>
+      <c r="K9" t="n">
+        <v>0.008464464820017037</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -751,6 +778,9 @@
       </c>
       <c r="J10" t="n">
         <v>0.006375993279965705</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.006577797400480235</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_9.xlsx
+++ b/predicted_factors_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,6 +467,9 @@
       <c r="K1" s="1" t="n">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -502,6 +505,9 @@
       <c r="K2" t="n">
         <v>-2.025330643747945</v>
       </c>
+      <c r="L2" t="n">
+        <v>-1.688930006213387</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -537,6 +543,9 @@
       <c r="K3" t="n">
         <v>-0.7600641086290955</v>
       </c>
+      <c r="L3" t="n">
+        <v>-0.6820512050915586</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -572,6 +581,9 @@
       <c r="K4" t="n">
         <v>0.1795264115558373</v>
       </c>
+      <c r="L4" t="n">
+        <v>0.1524897131710718</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -607,6 +619,9 @@
       <c r="K5" t="n">
         <v>0.5043081513480835</v>
       </c>
+      <c r="L5" t="n">
+        <v>0.4966947071150143</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -642,6 +657,9 @@
       <c r="K6" t="n">
         <v>-0.2948488521526653</v>
       </c>
+      <c r="L6" t="n">
+        <v>-0.3046276897293944</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -677,6 +695,9 @@
       <c r="K7" t="n">
         <v>-0.1286248163255662</v>
       </c>
+      <c r="L7" t="n">
+        <v>-0.1415013692318255</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -712,6 +733,9 @@
       <c r="K8" t="n">
         <v>-0.4015087398479374</v>
       </c>
+      <c r="L8" t="n">
+        <v>-0.4244858114820138</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -747,6 +771,9 @@
       <c r="K9" t="n">
         <v>0.008464464820017037</v>
       </c>
+      <c r="L9" t="n">
+        <v>0.007150693391336331</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -781,6 +808,9 @@
       </c>
       <c r="K10" t="n">
         <v>0.006577797400480235</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.006987142036802676</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_9.xlsx
+++ b/predicted_factors_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,9 @@
       <c r="L1" s="1" t="n">
         <v>11</v>
       </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -508,6 +511,9 @@
       <c r="L2" t="n">
         <v>-1.688930006213387</v>
       </c>
+      <c r="M2" t="n">
+        <v>-1.378667053488793</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -546,6 +552,9 @@
       <c r="L3" t="n">
         <v>-0.6820512050915586</v>
       </c>
+      <c r="M3" t="n">
+        <v>-0.6054348553986703</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -584,6 +593,9 @@
       <c r="L4" t="n">
         <v>0.1524897131710718</v>
       </c>
+      <c r="M4" t="n">
+        <v>0.1183757292086566</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -622,6 +634,9 @@
       <c r="L5" t="n">
         <v>0.4966947071150143</v>
       </c>
+      <c r="M5" t="n">
+        <v>0.476635391464496</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -660,6 +675,9 @@
       <c r="L6" t="n">
         <v>-0.3046276897293944</v>
       </c>
+      <c r="M6" t="n">
+        <v>-0.3088368245354767</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -698,6 +716,9 @@
       <c r="L7" t="n">
         <v>-0.1415013692318255</v>
       </c>
+      <c r="M7" t="n">
+        <v>-0.1506663203161937</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -736,6 +757,9 @@
       <c r="L8" t="n">
         <v>-0.4244858114820138</v>
       </c>
+      <c r="M8" t="n">
+        <v>-0.4384289313506162</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -774,6 +798,9 @@
       <c r="L9" t="n">
         <v>0.007150693391336331</v>
       </c>
+      <c r="M9" t="n">
+        <v>0.006029370678615624</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -811,6 +838,9 @@
       </c>
       <c r="L10" t="n">
         <v>0.006987142036802676</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.007514408260195172</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_9.xlsx
+++ b/predicted_factors_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,6 +473,9 @@
       <c r="M1" s="1" t="n">
         <v>12</v>
       </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -514,6 +517,9 @@
       <c r="M2" t="n">
         <v>-1.378667053488793</v>
       </c>
+      <c r="N2" t="n">
+        <v>-1.096542471521699</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -555,6 +561,9 @@
       <c r="M3" t="n">
         <v>-0.6054348553986703</v>
       </c>
+      <c r="N3" t="n">
+        <v>-0.5316760333950291</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -596,6 +605,9 @@
       <c r="M4" t="n">
         <v>0.1183757292086566</v>
       </c>
+      <c r="N4" t="n">
+        <v>0.07876925135617212</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -637,6 +649,9 @@
       <c r="M5" t="n">
         <v>0.476635391464496</v>
       </c>
+      <c r="N5" t="n">
+        <v>0.4473729720754004</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -678,6 +693,9 @@
       <c r="M6" t="n">
         <v>-0.3088368245354767</v>
       </c>
+      <c r="N6" t="n">
+        <v>-0.3080653473070941</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -719,6 +737,9 @@
       <c r="M7" t="n">
         <v>-0.1506663203161937</v>
       </c>
+      <c r="N7" t="n">
+        <v>-0.1563620781126316</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -760,6 +781,9 @@
       <c r="M8" t="n">
         <v>-0.4384289313506162</v>
       </c>
+      <c r="N8" t="n">
+        <v>-0.4441935620039109</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -801,6 +825,9 @@
       <c r="M9" t="n">
         <v>0.006029370678615624</v>
       </c>
+      <c r="N9" t="n">
+        <v>0.005081806023860451</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -841,6 +868,9 @@
       </c>
       <c r="M10" t="n">
         <v>0.007514408260195172</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.008088967309921083</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_9.xlsx
+++ b/predicted_factors_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,12 @@
       <c r="N1" s="1" t="n">
         <v>13</v>
       </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -520,6 +526,12 @@
       <c r="N2" t="n">
         <v>-1.096542471521699</v>
       </c>
+      <c r="O2" t="n">
+        <v>-0.8436378740411959</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-0.6202438358650769</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -564,6 +576,12 @@
       <c r="N3" t="n">
         <v>-0.5316760333950291</v>
       </c>
+      <c r="O3" t="n">
+        <v>-0.4619268668033214</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-0.3970542775398513</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -608,6 +626,12 @@
       <c r="N4" t="n">
         <v>0.07876925135617212</v>
       </c>
+      <c r="O4" t="n">
+        <v>0.03511856657370258</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-0.01127746424855717</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -652,6 +676,12 @@
       <c r="N5" t="n">
         <v>0.4473729720754004</v>
       </c>
+      <c r="O5" t="n">
+        <v>0.4117156031279412</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.3720558220892083</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -696,6 +726,12 @@
       <c r="N6" t="n">
         <v>-0.3080653473070941</v>
       </c>
+      <c r="O6" t="n">
+        <v>-0.3029526259961807</v>
+      </c>
+      <c r="P6" t="n">
+        <v>-0.2941608839115258</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -740,6 +776,12 @@
       <c r="N7" t="n">
         <v>-0.1563620781126316</v>
       </c>
+      <c r="O7" t="n">
+        <v>-0.1588957668628415</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-0.1586202220516812</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -784,6 +826,12 @@
       <c r="N8" t="n">
         <v>-0.4441935620039109</v>
       </c>
+      <c r="O8" t="n">
+        <v>-0.4427110506103647</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-0.4349476056201385</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -828,6 +876,12 @@
       <c r="N9" t="n">
         <v>0.005081806023860451</v>
       </c>
+      <c r="O9" t="n">
+        <v>0.004290132862520322</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.003637434527014847</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -871,6 +925,12 @@
       </c>
       <c r="N10" t="n">
         <v>0.008088967309921083</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.008656730556103144</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.009177797020132241</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_9.xlsx
+++ b/predicted_factors_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,6 +482,9 @@
       <c r="P1" s="1" t="n">
         <v>15</v>
       </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -532,6 +535,9 @@
       <c r="P2" t="n">
         <v>-0.6202438358650769</v>
       </c>
+      <c r="Q2" t="n">
+        <v>-0.4259866768678633</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -582,6 +588,9 @@
       <c r="P3" t="n">
         <v>-0.3970542775398513</v>
       </c>
+      <c r="Q3" t="n">
+        <v>-0.3376682281634716</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -632,6 +641,9 @@
       <c r="P4" t="n">
         <v>-0.01127746424855717</v>
       </c>
+      <c r="Q4" t="n">
+        <v>-0.05927561508791966</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -682,6 +694,9 @@
       <c r="P5" t="n">
         <v>0.3720558220892083</v>
       </c>
+      <c r="Q5" t="n">
+        <v>0.3303956097628978</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -732,6 +747,9 @@
       <c r="P6" t="n">
         <v>-0.2941608839115258</v>
       </c>
+      <c r="Q6" t="n">
+        <v>-0.2823508222413378</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -782,6 +800,9 @@
       <c r="P7" t="n">
         <v>-0.1586202220516812</v>
       </c>
+      <c r="Q7" t="n">
+        <v>-0.1559148480341249</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -832,6 +853,9 @@
       <c r="P8" t="n">
         <v>-0.4349476056201385</v>
       </c>
+      <c r="Q8" t="n">
+        <v>-0.4218718708789463</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -882,6 +906,9 @@
       <c r="P9" t="n">
         <v>0.003637434527014847</v>
       </c>
+      <c r="Q9" t="n">
+        <v>0.003107823282801498</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -931,6 +958,9 @@
       </c>
       <c r="P10" t="n">
         <v>0.009177797020132241</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.009624253799955842</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_9.xlsx
+++ b/predicted_factors_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,6 +485,9 @@
       <c r="Q1" s="1" t="n">
         <v>16</v>
       </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -538,6 +541,9 @@
       <c r="Q2" t="n">
         <v>-0.4259866768678633</v>
       </c>
+      <c r="R2" t="n">
+        <v>-0.2599501159120108</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -591,6 +597,9 @@
       <c r="Q3" t="n">
         <v>-0.3376682281634716</v>
       </c>
+      <c r="R3" t="n">
+        <v>-0.2841524488609151</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -644,6 +653,9 @@
       <c r="Q4" t="n">
         <v>-0.05927561508791966</v>
       </c>
+      <c r="R4" t="n">
+        <v>-0.1078887022466033</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -697,6 +709,9 @@
       <c r="Q5" t="n">
         <v>0.3303956097628978</v>
       </c>
+      <c r="R5" t="n">
+        <v>0.2883761133796629</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -750,6 +765,9 @@
       <c r="Q6" t="n">
         <v>-0.2823508222413378</v>
       </c>
+      <c r="R6" t="n">
+        <v>-0.2681612354607245</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -803,6 +821,9 @@
       <c r="Q7" t="n">
         <v>-0.1559148480341249</v>
       </c>
+      <c r="R7" t="n">
+        <v>-0.151167924054741</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -856,6 +877,9 @@
       <c r="Q8" t="n">
         <v>-0.4218718708789463</v>
       </c>
+      <c r="R8" t="n">
+        <v>-0.4044296546999065</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -909,6 +933,9 @@
       <c r="Q9" t="n">
         <v>0.003107823282801498</v>
       </c>
+      <c r="R9" t="n">
+        <v>0.002686483222434466</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -961,6 +988,9 @@
       </c>
       <c r="Q10" t="n">
         <v>0.009624253799955842</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.009978160125737727</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_9.xlsx
+++ b/predicted_factors_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,6 +488,9 @@
       <c r="R1" s="1" t="n">
         <v>17</v>
       </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -544,6 +547,9 @@
       <c r="R2" t="n">
         <v>-0.2599501159120108</v>
       </c>
+      <c r="S2" t="n">
+        <v>-0.1207889500216706</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -600,6 +606,9 @@
       <c r="R3" t="n">
         <v>-0.2841524488609151</v>
       </c>
+      <c r="S3" t="n">
+        <v>-0.236695872287417</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -656,6 +665,9 @@
       <c r="R4" t="n">
         <v>-0.1078887022466033</v>
       </c>
+      <c r="S4" t="n">
+        <v>-0.1562813012480582</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -712,6 +724,9 @@
       <c r="R5" t="n">
         <v>0.2883761133796629</v>
       </c>
+      <c r="S5" t="n">
+        <v>0.2473105207934527</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -768,6 +783,9 @@
       <c r="R6" t="n">
         <v>-0.2681612354607245</v>
       </c>
+      <c r="S6" t="n">
+        <v>-0.2521931041916805</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -824,6 +842,9 @@
       <c r="R7" t="n">
         <v>-0.151167924054741</v>
       </c>
+      <c r="S7" t="n">
+        <v>-0.144761516527825</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -880,6 +901,9 @@
       <c r="R8" t="n">
         <v>-0.4044296546999065</v>
       </c>
+      <c r="S8" t="n">
+        <v>-0.3835245205289742</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -936,6 +960,9 @@
       <c r="R9" t="n">
         <v>0.002686483222434466</v>
       </c>
+      <c r="S9" t="n">
+        <v>0.002359686461601221</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -991,6 +1018,9 @@
       </c>
       <c r="R10" t="n">
         <v>0.009978160125737727</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.01022972836868071</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_9.xlsx
+++ b/predicted_factors_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,6 +491,9 @@
       <c r="S1" s="1" t="n">
         <v>18</v>
       </c>
+      <c r="T1" s="1" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -550,6 +553,9 @@
       <c r="S2" t="n">
         <v>-0.1207889500216706</v>
       </c>
+      <c r="T2" t="n">
+        <v>-0.006832843735349885</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -609,6 +615,9 @@
       <c r="S3" t="n">
         <v>-0.236695872287417</v>
       </c>
+      <c r="T3" t="n">
+        <v>-0.1953234101971197</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -668,6 +677,9 @@
       <c r="S4" t="n">
         <v>-0.1562813012480582</v>
       </c>
+      <c r="T4" t="n">
+        <v>-0.203761921261048</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -727,6 +739,9 @@
       <c r="S5" t="n">
         <v>0.2473105207934527</v>
       </c>
+      <c r="T5" t="n">
+        <v>0.2082186208577866</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -786,6 +801,9 @@
       <c r="S6" t="n">
         <v>-0.2521931041916805</v>
       </c>
+      <c r="T6" t="n">
+        <v>-0.2349981902026301</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -845,6 +863,9 @@
       <c r="S7" t="n">
         <v>-0.144761516527825</v>
       </c>
+      <c r="T7" t="n">
+        <v>-0.1370596163545645</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -904,6 +925,9 @@
       <c r="S8" t="n">
         <v>-0.3835245205289742</v>
       </c>
+      <c r="T8" t="n">
+        <v>-0.3600031928619194</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -963,6 +987,9 @@
       <c r="S9" t="n">
         <v>0.002359686461601221</v>
       </c>
+      <c r="T9" t="n">
+        <v>0.002114790127538696</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1021,6 +1048,9 @@
       </c>
       <c r="S10" t="n">
         <v>0.01022972836868071</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.0103757040271934</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_9.xlsx
+++ b/predicted_factors_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,6 +494,9 @@
       <c r="T1" s="1" t="n">
         <v>19</v>
       </c>
+      <c r="U1" s="1" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -556,6 +559,9 @@
       <c r="T2" t="n">
         <v>-0.006832843735349885</v>
       </c>
+      <c r="U2" t="n">
+        <v>0.08382089070118294</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -618,6 +624,9 @@
       <c r="T3" t="n">
         <v>-0.1953234101971197</v>
       </c>
+      <c r="U3" t="n">
+        <v>-0.1599251008251699</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -680,6 +689,9 @@
       <c r="T4" t="n">
         <v>-0.203761921261048</v>
       </c>
+      <c r="U4" t="n">
+        <v>-0.2497727096892125</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -742,6 +754,9 @@
       <c r="T5" t="n">
         <v>0.2082186208577866</v>
       </c>
+      <c r="U5" t="n">
+        <v>0.1718617451808287</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -804,6 +819,9 @@
       <c r="T6" t="n">
         <v>-0.2349981902026301</v>
       </c>
+      <c r="U6" t="n">
+        <v>-0.2170717904537832</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -866,6 +884,9 @@
       <c r="T7" t="n">
         <v>-0.1370596163545645</v>
       </c>
+      <c r="U7" t="n">
+        <v>-0.1283996213879578</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -928,6 +949,9 @@
       <c r="T8" t="n">
         <v>-0.3600031928619194</v>
       </c>
+      <c r="U8" t="n">
+        <v>-0.334644980987106</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -990,6 +1014,9 @@
       <c r="T9" t="n">
         <v>0.002114790127538696</v>
       </c>
+      <c r="U9" t="n">
+        <v>0.001940219601399553</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1051,6 +1078,9 @@
       </c>
       <c r="T10" t="n">
         <v>0.0103757040271934</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.01041793986228385</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_9.xlsx
+++ b/predicted_factors_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U10"/>
+  <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,6 +497,9 @@
       <c r="U1" s="1" t="n">
         <v>20</v>
       </c>
+      <c r="V1" s="1" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -562,6 +565,9 @@
       <c r="U2" t="n">
         <v>0.08382089070118294</v>
       </c>
+      <c r="V2" t="n">
+        <v>0.1532259901398869</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -627,6 +633,9 @@
       <c r="U3" t="n">
         <v>-0.1599251008251699</v>
       </c>
+      <c r="V3" t="n">
+        <v>-0.1302830009099286</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -692,6 +701,9 @@
       <c r="U4" t="n">
         <v>-0.2497727096892125</v>
       </c>
+      <c r="V4" t="n">
+        <v>-0.2938776180095117</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -757,6 +769,9 @@
       <c r="U5" t="n">
         <v>0.1718617451808287</v>
       </c>
+      <c r="V5" t="n">
+        <v>0.1387770117343883</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -822,6 +837,9 @@
       <c r="U6" t="n">
         <v>-0.2170717904537832</v>
       </c>
+      <c r="V6" t="n">
+        <v>-0.1988490686437514</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -887,6 +905,9 @@
       <c r="U7" t="n">
         <v>-0.1283996213879578</v>
       </c>
+      <c r="V7" t="n">
+        <v>-0.1190869100546941</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -952,6 +973,9 @@
       <c r="U8" t="n">
         <v>-0.334644980987106</v>
       </c>
+      <c r="V8" t="n">
+        <v>-0.3081546198046839</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1017,6 +1041,9 @@
       <c r="U9" t="n">
         <v>0.001940219601399553</v>
       </c>
+      <c r="V9" t="n">
+        <v>0.001825441745098844</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1081,6 +1108,9 @@
       </c>
       <c r="U10" t="n">
         <v>0.01041793986228385</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.0103621554174607</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_9.xlsx
+++ b/predicted_factors_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V10"/>
+  <dimension ref="A1:W10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,6 +500,9 @@
       <c r="V1" s="1" t="n">
         <v>21</v>
       </c>
+      <c r="W1" s="1" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -568,6 +571,9 @@
       <c r="V2" t="n">
         <v>0.1532259901398869</v>
       </c>
+      <c r="W2" t="n">
+        <v>0.2035173724756844</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -636,6 +642,9 @@
       <c r="V3" t="n">
         <v>-0.1302830009099286</v>
       </c>
+      <c r="W3" t="n">
+        <v>-0.1060954742317463</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -704,6 +713,9 @@
       <c r="V4" t="n">
         <v>-0.2938776180095117</v>
       </c>
+      <c r="W4" t="n">
+        <v>-0.3357497901462564</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -772,6 +784,9 @@
       <c r="V5" t="n">
         <v>0.1387770117343883</v>
       </c>
+      <c r="W5" t="n">
+        <v>0.1093100396665429</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -840,6 +855,9 @@
       <c r="V6" t="n">
         <v>-0.1988490686437514</v>
       </c>
+      <c r="W6" t="n">
+        <v>-0.1807042721635022</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -908,6 +926,9 @@
       <c r="V7" t="n">
         <v>-0.1190869100546941</v>
       </c>
+      <c r="W7" t="n">
+        <v>-0.1093920276227534</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -976,6 +997,9 @@
       <c r="V8" t="n">
         <v>-0.3081546198046839</v>
       </c>
+      <c r="W8" t="n">
+        <v>-0.2811580553389925</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1044,6 +1068,9 @@
       <c r="V9" t="n">
         <v>0.001825441745098844</v>
       </c>
+      <c r="W9" t="n">
+        <v>0.001760930555557104</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1111,6 +1138,9 @@
       </c>
       <c r="V10" t="n">
         <v>0.0103621554174607</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.01021687095149279</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_9.xlsx
+++ b/predicted_factors_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W10"/>
+  <dimension ref="A1:X10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,6 +503,9 @@
       <c r="W1" s="1" t="n">
         <v>22</v>
       </c>
+      <c r="X1" s="1" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -574,6 +577,9 @@
       <c r="W2" t="n">
         <v>0.2035173724756844</v>
       </c>
+      <c r="X2" t="n">
+        <v>0.2368522829701899</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -645,6 +651,9 @@
       <c r="W3" t="n">
         <v>-0.1060954742317463</v>
       </c>
+      <c r="X3" t="n">
+        <v>-0.08699873783225499</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -716,6 +725,9 @@
       <c r="W4" t="n">
         <v>-0.3357497901462564</v>
       </c>
+      <c r="X4" t="n">
+        <v>-0.3751587636272067</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -787,6 +799,9 @@
       <c r="W5" t="n">
         <v>0.1093100396665429</v>
       </c>
+      <c r="X5" t="n">
+        <v>0.08364554618615209</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -858,6 +873,9 @@
       <c r="W6" t="n">
         <v>-0.1807042721635022</v>
       </c>
+      <c r="X6" t="n">
+        <v>-0.1629521352966831</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -929,6 +947,9 @@
       <c r="W7" t="n">
         <v>-0.1093920276227534</v>
       </c>
+      <c r="X7" t="n">
+        <v>-0.09954991661885899</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1000,6 +1021,9 @@
       <c r="W8" t="n">
         <v>-0.2811580553389925</v>
       </c>
+      <c r="X8" t="n">
+        <v>-0.2542007716402595</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1071,6 +1095,9 @@
       <c r="W9" t="n">
         <v>0.001760930555557104</v>
       </c>
+      <c r="X9" t="n">
+        <v>0.001738126843610601</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1141,6 +1168,9 @@
       </c>
       <c r="W10" t="n">
         <v>0.01021687095149279</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.009992503546242029</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_9.xlsx
+++ b/predicted_factors_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X10"/>
+  <dimension ref="A1:Y10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,6 +506,9 @@
       <c r="X1" s="1" t="n">
         <v>23</v>
       </c>
+      <c r="Y1" s="1" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -580,6 +583,9 @@
       <c r="X2" t="n">
         <v>0.2368522829701899</v>
       </c>
+      <c r="Y2" t="n">
+        <v>0.2553617699302019</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -654,6 +660,9 @@
       <c r="X3" t="n">
         <v>-0.08699873783225499</v>
       </c>
+      <c r="Y3" t="n">
+        <v>-0.0725856747940641</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -728,6 +737,9 @@
       <c r="X4" t="n">
         <v>-0.3751587636272067</v>
       </c>
+      <c r="Y4" t="n">
+        <v>-0.4119579181880897</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -802,6 +814,9 @@
       <c r="X5" t="n">
         <v>0.08364554618615209</v>
       </c>
+      <c r="Y5" t="n">
+        <v>0.06183545089575793</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -876,6 +891,9 @@
       <c r="X6" t="n">
         <v>-0.1629521352966831</v>
       </c>
+      <c r="Y6" t="n">
+        <v>-0.1458508325754494</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -950,6 +968,9 @@
       <c r="X7" t="n">
         <v>-0.09954991661885899</v>
       </c>
+      <c r="Y7" t="n">
+        <v>-0.08976063260241851</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1024,6 +1045,9 @@
       <c r="X8" t="n">
         <v>-0.2542007716402595</v>
       </c>
+      <c r="Y8" t="n">
+        <v>-0.2277482855901698</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1098,6 +1122,9 @@
       <c r="X9" t="n">
         <v>0.001738126843610601</v>
       </c>
+      <c r="Y9" t="n">
+        <v>0.001749393052108972</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1171,6 +1198,9 @@
       </c>
       <c r="X10" t="n">
         <v>0.009992503546242029</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.009700612379264702</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_9.xlsx
+++ b/predicted_factors_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y10"/>
+  <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,6 +509,9 @@
       <c r="Y1" s="1" t="n">
         <v>24</v>
       </c>
+      <c r="Z1" s="1" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -586,6 +589,9 @@
       <c r="Y2" t="n">
         <v>0.2553617699302019</v>
       </c>
+      <c r="Z2" t="n">
+        <v>0.2611116365541649</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -663,6 +669,9 @@
       <c r="Y3" t="n">
         <v>-0.0725856747940641</v>
       </c>
+      <c r="Z3" t="n">
+        <v>-0.06242201978879717</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -740,6 +749,9 @@
       <c r="Y4" t="n">
         <v>-0.4119579181880897</v>
       </c>
+      <c r="Z4" t="n">
+        <v>-0.4460724747286136</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -817,6 +829,9 @@
       <c r="Y5" t="n">
         <v>0.06183545089575793</v>
       </c>
+      <c r="Z5" t="n">
+        <v>0.04382429064096493</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -894,6 +909,9 @@
       <c r="Y6" t="n">
         <v>-0.1458508325754494</v>
       </c>
+      <c r="Z6" t="n">
+        <v>-0.129605947093461</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -971,6 +989,9 @@
       <c r="Y7" t="n">
         <v>-0.08976063260241851</v>
       </c>
+      <c r="Z7" t="n">
+        <v>-0.08019105701054331</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1048,6 +1069,9 @@
       <c r="Y8" t="n">
         <v>-0.2277482855901698</v>
       </c>
+      <c r="Z8" t="n">
+        <v>-0.2021884472352143</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1125,6 +1149,9 @@
       <c r="Y9" t="n">
         <v>0.001749393052108972</v>
       </c>
+      <c r="Z9" t="n">
+        <v>0.001787964101178</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1201,6 +1228,9 @@
       </c>
       <c r="Y10" t="n">
         <v>0.009700612379264702</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.00935327966861408</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_9.xlsx
+++ b/predicted_factors_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z10"/>
+  <dimension ref="A1:AA10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,6 +512,9 @@
       <c r="Z1" s="1" t="n">
         <v>25</v>
       </c>
+      <c r="AA1" s="1" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -592,6 +595,9 @@
       <c r="Z2" t="n">
         <v>0.2611116365541649</v>
       </c>
+      <c r="AA2" t="n">
+        <v>0.2560719248061689</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -672,6 +678,9 @@
       <c r="Z3" t="n">
         <v>-0.06242201978879717</v>
       </c>
+      <c r="AA3" t="n">
+        <v>-0.05606008250991059</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -752,6 +761,9 @@
       <c r="Z4" t="n">
         <v>-0.4460724747286136</v>
       </c>
+      <c r="AA4" t="n">
+        <v>-0.4774882419637274</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -832,6 +844,9 @@
       <c r="Z5" t="n">
         <v>0.04382429064096493</v>
       </c>
+      <c r="AA5" t="n">
+        <v>0.02947188643676783</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -912,6 +927,9 @@
       <c r="Z6" t="n">
         <v>-0.129605947093461</v>
       </c>
+      <c r="AA6" t="n">
+        <v>-0.1143750314561566</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -992,6 +1010,9 @@
       <c r="Z7" t="n">
         <v>-0.08019105701054331</v>
       </c>
+      <c r="AA7" t="n">
+        <v>-0.07097721664639974</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1072,6 +1093,9 @@
       <c r="Z8" t="n">
         <v>-0.2021884472352143</v>
       </c>
+      <c r="AA8" t="n">
+        <v>-0.1778351911985034</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1152,6 +1176,9 @@
       <c r="Z9" t="n">
         <v>0.001787964101178</v>
       </c>
+      <c r="AA9" t="n">
+        <v>0.00184789507599999</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1231,6 +1258,9 @@
       </c>
       <c r="Z10" t="n">
         <v>0.00935327966861408</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.008962613545917002</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_9.xlsx
+++ b/predicted_factors_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA10"/>
+  <dimension ref="A1:AB10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,6 +515,9 @@
       <c r="AA1" s="1" t="n">
         <v>26</v>
       </c>
+      <c r="AB1" s="1" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -598,6 +601,9 @@
       <c r="AA2" t="n">
         <v>0.2560719248061689</v>
       </c>
+      <c r="AB2" t="n">
+        <v>0.242093955619838</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -681,6 +687,9 @@
       <c r="AA3" t="n">
         <v>-0.05606008250991059</v>
       </c>
+      <c r="AB3" t="n">
+        <v>-0.05305020545731669</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -764,6 +773,9 @@
       <c r="AA4" t="n">
         <v>-0.4774882419637274</v>
       </c>
+      <c r="AB4" t="n">
+        <v>-0.5062412273908905</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -847,6 +859,9 @@
       <c r="AA5" t="n">
         <v>0.02947188643676783</v>
       </c>
+      <c r="AB5" t="n">
+        <v>0.01857330580910634</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -930,6 +945,9 @@
       <c r="AA6" t="n">
         <v>-0.1143750314561566</v>
       </c>
+      <c r="AB6" t="n">
+        <v>-0.1002724463627169</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1013,6 +1031,9 @@
       <c r="AA7" t="n">
         <v>-0.07097721664639974</v>
       </c>
+      <c r="AB7" t="n">
+        <v>-0.06222692049994565</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1096,6 +1117,9 @@
       <c r="AA8" t="n">
         <v>-0.1778351911985034</v>
       </c>
+      <c r="AB8" t="n">
+        <v>-0.1549333984461336</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1179,6 +1203,9 @@
       <c r="AA9" t="n">
         <v>0.00184789507599999</v>
       </c>
+      <c r="AB9" t="n">
+        <v>0.00192400657164069</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1261,6 +1288,9 @@
       </c>
       <c r="AA10" t="n">
         <v>0.008962613545917002</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.008540359098175281</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_9.xlsx
+++ b/predicted_factors_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB10"/>
+  <dimension ref="A1:AC10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,9 @@
       <c r="AB1" s="1" t="n">
         <v>27</v>
       </c>
+      <c r="AC1" s="1" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -604,6 +607,9 @@
       <c r="AB2" t="n">
         <v>0.242093955619838</v>
       </c>
+      <c r="AC2" t="n">
+        <v>0.2208939617212661</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -690,6 +696,9 @@
       <c r="AB3" t="n">
         <v>-0.05305020545731669</v>
       </c>
+      <c r="AC3" t="n">
+        <v>-0.05295016523278261</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -776,6 +785,9 @@
       <c r="AB4" t="n">
         <v>-0.5062412273908905</v>
       </c>
+      <c r="AC4" t="n">
+        <v>-0.5324081699533064</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -862,6 +874,9 @@
       <c r="AB5" t="n">
         <v>0.01857330580910634</v>
       </c>
+      <c r="AC5" t="n">
+        <v>0.01087623409812704</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -948,6 +963,9 @@
       <c r="AB6" t="n">
         <v>-0.1002724463627169</v>
       </c>
+      <c r="AC6" t="n">
+        <v>-0.08737425375502386</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1034,6 +1052,9 @@
       <c r="AB7" t="n">
         <v>-0.06222692049994565</v>
       </c>
+      <c r="AC7" t="n">
+        <v>-0.05402251444143195</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1120,6 +1141,9 @@
       <c r="AB8" t="n">
         <v>-0.1549333984461336</v>
       </c>
+      <c r="AC8" t="n">
+        <v>-0.133664550525803</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1206,6 +1230,9 @@
       <c r="AB9" t="n">
         <v>0.00192400657164069</v>
       </c>
+      <c r="AC9" t="n">
+        <v>0.002011828524049201</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1291,6 +1318,9 @@
       </c>
       <c r="AB10" t="n">
         <v>0.008540359098175281</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.008097604055438721</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_9.xlsx
+++ b/predicted_factors_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC10"/>
+  <dimension ref="A1:AD10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,6 +521,9 @@
       <c r="AC1" s="1" t="n">
         <v>28</v>
       </c>
+      <c r="AD1" s="1" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -610,6 +613,9 @@
       <c r="AC2" t="n">
         <v>0.2208939617212661</v>
       </c>
+      <c r="AD2" t="n">
+        <v>0.1940423914536322</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -699,6 +705,9 @@
       <c r="AC3" t="n">
         <v>-0.05295016523278261</v>
       </c>
+      <c r="AD3" t="n">
+        <v>-0.05533272729082029</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -788,6 +797,9 @@
       <c r="AC4" t="n">
         <v>-0.5324081699533064</v>
       </c>
+      <c r="AD4" t="n">
+        <v>-0.5560980099342988</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -877,6 +889,9 @@
       <c r="AC5" t="n">
         <v>0.01087623409812704</v>
       </c>
+      <c r="AD5" t="n">
+        <v>0.006095913058833515</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -966,6 +981,9 @@
       <c r="AC6" t="n">
         <v>-0.08737425375502386</v>
       </c>
+      <c r="AD6" t="n">
+        <v>-0.07572301426896386</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1055,6 +1073,9 @@
       <c r="AC7" t="n">
         <v>-0.05402251444143195</v>
       </c>
+      <c r="AD7" t="n">
+        <v>-0.04642362620251346</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1144,6 +1165,9 @@
       <c r="AC8" t="n">
         <v>-0.133664550525803</v>
       </c>
+      <c r="AD8" t="n">
+        <v>-0.1141528898305279</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1233,6 +1257,9 @@
       <c r="AC9" t="n">
         <v>0.002011828524049201</v>
       </c>
+      <c r="AD9" t="n">
+        <v>0.002107543353945598</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1321,6 +1348,9 @@
       </c>
       <c r="AC10" t="n">
         <v>0.008097604055438721</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.007644566091262503</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_9.xlsx
+++ b/predicted_factors_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD10"/>
+  <dimension ref="A1:AE10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,6 +524,9 @@
       <c r="AD1" s="1" t="n">
         <v>29</v>
       </c>
+      <c r="AE1" s="1" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -616,6 +619,9 @@
       <c r="AD2" t="n">
         <v>0.1940423914536322</v>
       </c>
+      <c r="AE2" t="n">
+        <v>0.1629580232886279</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -708,6 +714,9 @@
       <c r="AD3" t="n">
         <v>-0.05533272729082029</v>
       </c>
+      <c r="AE3" t="n">
+        <v>-0.05979155777132093</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -800,6 +809,9 @@
       <c r="AD4" t="n">
         <v>-0.5560980099342988</v>
       </c>
+      <c r="AE4" t="n">
+        <v>-0.5774442831417139</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -892,6 +904,9 @@
       <c r="AD5" t="n">
         <v>0.006095913058833515</v>
       </c>
+      <c r="AE5" t="n">
+        <v>0.003927830527240546</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -984,6 +999,9 @@
       <c r="AD6" t="n">
         <v>-0.07572301426896386</v>
       </c>
+      <c r="AE6" t="n">
+        <v>-0.06533239267117844</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1076,6 +1094,9 @@
       <c r="AD7" t="n">
         <v>-0.04642362620251346</v>
       </c>
+      <c r="AE7" t="n">
+        <v>-0.03946982569493634</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1168,6 +1189,9 @@
       <c r="AD8" t="n">
         <v>-0.1141528898305279</v>
       </c>
+      <c r="AE8" t="n">
+        <v>-0.09647183692497337</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1260,6 +1284,9 @@
       <c r="AD9" t="n">
         <v>0.002107543353945598</v>
       </c>
+      <c r="AE9" t="n">
+        <v>0.002207929217384228</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1351,6 +1378,9 @@
       </c>
       <c r="AD10" t="n">
         <v>0.007644566091262503</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.007190449422316626</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_9.xlsx
+++ b/predicted_factors_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE10"/>
+  <dimension ref="A1:AF10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,6 +527,9 @@
       <c r="AE1" s="1" t="n">
         <v>30</v>
       </c>
+      <c r="AF1" s="1" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -622,6 +625,9 @@
       <c r="AE2" t="n">
         <v>0.1629580232886279</v>
       </c>
+      <c r="AF2" t="n">
+        <v>0.1289061027598576</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -717,6 +723,9 @@
       <c r="AE3" t="n">
         <v>-0.05979155777132093</v>
       </c>
+      <c r="AF3" t="n">
+        <v>-0.06594568583114739</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -812,6 +821,9 @@
       <c r="AE4" t="n">
         <v>-0.5774442831417139</v>
       </c>
+      <c r="AF4" t="n">
+        <v>-0.5965984077915335</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -907,6 +919,9 @@
       <c r="AE5" t="n">
         <v>0.003927830527240546</v>
       </c>
+      <c r="AF5" t="n">
+        <v>0.004058356350873336</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1002,6 +1017,9 @@
       <c r="AE6" t="n">
         <v>-0.06533239267117844</v>
       </c>
+      <c r="AF6" t="n">
+        <v>-0.05619151262976686</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1097,6 +1115,9 @@
       <c r="AE7" t="n">
         <v>-0.03946982569493634</v>
       </c>
+      <c r="AF7" t="n">
+        <v>-0.03318316108012804</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1192,6 +1213,9 @@
       <c r="AE8" t="n">
         <v>-0.09647183692497337</v>
       </c>
+      <c r="AF8" t="n">
+        <v>-0.08065045633012147</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1287,6 +1311,9 @@
       <c r="AE9" t="n">
         <v>0.002207929217384228</v>
       </c>
+      <c r="AF9" t="n">
+        <v>0.002310304092700258</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1381,6 +1408,9 @@
       </c>
       <c r="AE10" t="n">
         <v>0.007190449422316626</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.006743359298269712</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_9.xlsx
+++ b/predicted_factors_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF10"/>
+  <dimension ref="A1:AG10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -530,6 +530,9 @@
       <c r="AF1" s="1" t="n">
         <v>31</v>
       </c>
+      <c r="AG1" s="1" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -628,6 +631,9 @@
       <c r="AF2" t="n">
         <v>0.1289061027598576</v>
       </c>
+      <c r="AG2" t="n">
+        <v>0.0929997900756864</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -726,6 +732,9 @@
       <c r="AF3" t="n">
         <v>-0.06594568583114739</v>
       </c>
+      <c r="AG3" t="n">
+        <v>-0.07344269781424266</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -824,6 +833,9 @@
       <c r="AF4" t="n">
         <v>-0.5965984077915335</v>
       </c>
+      <c r="AG4" t="n">
+        <v>-0.6137238207957868</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -922,6 +934,9 @@
       <c r="AF5" t="n">
         <v>0.004058356350873336</v>
       </c>
+      <c r="AG5" t="n">
+        <v>0.006173521591744937</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1020,6 +1035,9 @@
       <c r="AF6" t="n">
         <v>-0.05619151262976686</v>
       </c>
+      <c r="AG6" t="n">
+        <v>-0.04826902705507005</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1118,6 +1136,9 @@
       <c r="AF7" t="n">
         <v>-0.03318316108012804</v>
       </c>
+      <c r="AG7" t="n">
+        <v>-0.02757055257445013</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1216,6 +1237,9 @@
       <c r="AF8" t="n">
         <v>-0.08065045633012147</v>
       </c>
+      <c r="AG8" t="n">
+        <v>-0.06667980244808273</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1314,6 +1338,9 @@
       <c r="AF9" t="n">
         <v>0.002310304092700258</v>
       </c>
+      <c r="AG9" t="n">
+        <v>0.002412471344994594</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1411,6 +1438,9 @@
       </c>
       <c r="AF10" t="n">
         <v>0.006743359298269712</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.00631026400629137</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_9.xlsx
+++ b/predicted_factors_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG10"/>
+  <dimension ref="A1:AH10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -533,6 +533,9 @@
       <c r="AG1" s="1" t="n">
         <v>32</v>
       </c>
+      <c r="AH1" s="1" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -634,6 +637,9 @@
       <c r="AG2" t="n">
         <v>0.0929997900756864</v>
       </c>
+      <c r="AH2" t="n">
+        <v>0.05620428324942525</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -735,6 +741,9 @@
       <c r="AG3" t="n">
         <v>-0.07344269781424266</v>
       </c>
+      <c r="AH3" t="n">
+        <v>-0.08196083184100642</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -836,6 +845,9 @@
       <c r="AG4" t="n">
         <v>-0.6137238207957868</v>
       </c>
+      <c r="AH4" t="n">
+        <v>-0.6289909131956468</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -937,6 +949,9 @@
       <c r="AG5" t="n">
         <v>0.006173521591744937</v>
       </c>
+      <c r="AH5" t="n">
+        <v>0.00996613356688557</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1038,6 +1053,9 @@
       <c r="AG6" t="n">
         <v>-0.04826902705507005</v>
       </c>
+      <c r="AH6" t="n">
+        <v>-0.04151688590384849</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1139,6 +1157,9 @@
       <c r="AG7" t="n">
         <v>-0.02757055257445013</v>
       </c>
+      <c r="AH7" t="n">
+        <v>-0.02262603757023073</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1240,6 +1261,9 @@
       <c r="AG8" t="n">
         <v>-0.06667980244808273</v>
       </c>
+      <c r="AH8" t="n">
+        <v>-0.0545190152350442</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1341,6 +1365,9 @@
       <c r="AG9" t="n">
         <v>0.002412471344994594</v>
       </c>
+      <c r="AH9" t="n">
+        <v>0.002512667306023673</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1441,6 +1468,9 @@
       </c>
       <c r="AG10" t="n">
         <v>0.00631026400629137</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0.005896995116376651</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_9.xlsx
+++ b/predicted_factors_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH10"/>
+  <dimension ref="A1:AI10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,6 +536,9 @@
       <c r="AH1" s="1" t="n">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -640,6 +643,9 @@
       <c r="AH2" t="n">
         <v>0.05620428324942525</v>
       </c>
+      <c r="AI2" t="n">
+        <v>0.01934305531894484</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -744,6 +750,9 @@
       <c r="AH3" t="n">
         <v>-0.08196083184100642</v>
       </c>
+      <c r="AI3" t="n">
+        <v>-0.09121012860098027</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -848,6 +857,9 @@
       <c r="AH4" t="n">
         <v>-0.6289909131956468</v>
       </c>
+      <c r="AI4" t="n">
+        <v>-0.6425727106542379</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -952,6 +964,9 @@
       <c r="AH5" t="n">
         <v>0.00996613356688557</v>
       </c>
+      <c r="AI5" t="n">
+        <v>0.01514141105029668</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1056,6 +1071,9 @@
       <c r="AH6" t="n">
         <v>-0.04151688590384849</v>
       </c>
+      <c r="AI6" t="n">
+        <v>-0.03587379285460152</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1160,6 +1178,9 @@
       <c r="AH7" t="n">
         <v>-0.02262603757023073</v>
       </c>
+      <c r="AI7" t="n">
+        <v>-0.01833286574392566</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1264,6 +1285,9 @@
       <c r="AH8" t="n">
         <v>-0.0545190152350442</v>
       </c>
+      <c r="AI8" t="n">
+        <v>-0.04410106928394077</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1368,6 +1392,9 @@
       <c r="AH9" t="n">
         <v>0.002512667306023673</v>
       </c>
+      <c r="AI9" t="n">
+        <v>0.002609511298924211</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1471,6 +1498,9 @@
       </c>
       <c r="AH10" t="n">
         <v>0.005896995116376651</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.005508277809132182</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_9.xlsx
+++ b/predicted_factors_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI10"/>
+  <dimension ref="A1:AJ10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,6 +539,9 @@
       <c r="AI1" s="1" t="n">
         <v>34</v>
       </c>
+      <c r="AJ1" s="1" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -646,6 +649,9 @@
       <c r="AI2" t="n">
         <v>0.01934305531894484</v>
       </c>
+      <c r="AJ2" t="n">
+        <v>-0.01689428661850001</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -753,6 +759,9 @@
       <c r="AI3" t="n">
         <v>-0.09121012860098027</v>
       </c>
+      <c r="AJ3" t="n">
+        <v>-0.1009327816087829</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -860,6 +869,9 @@
       <c r="AI4" t="n">
         <v>-0.6425727106542379</v>
       </c>
+      <c r="AJ4" t="n">
+        <v>-0.6546412431271356</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -967,6 +979,9 @@
       <c r="AI5" t="n">
         <v>0.01514141105029668</v>
       </c>
+      <c r="AJ5" t="n">
+        <v>0.02142131361803112</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1074,6 +1089,9 @@
       <c r="AI6" t="n">
         <v>-0.03587379285460152</v>
       </c>
+      <c r="AJ6" t="n">
+        <v>-0.03126834804644939</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1181,6 +1199,9 @@
       <c r="AI7" t="n">
         <v>-0.01833286574392566</v>
       </c>
+      <c r="AJ7" t="n">
+        <v>-0.01466544420076261</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1288,6 +1309,9 @@
       <c r="AI8" t="n">
         <v>-0.04410106928394077</v>
       </c>
+      <c r="AJ8" t="n">
+        <v>-0.03533810936818663</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1395,6 +1419,9 @@
       <c r="AI9" t="n">
         <v>0.002609511298924211</v>
       </c>
+      <c r="AJ9" t="n">
+        <v>0.002701958431788948</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1501,6 +1528,9 @@
       </c>
       <c r="AI10" t="n">
         <v>0.005508277809132182</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0.005147784211437659</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_9.xlsx
+++ b/predicted_factors_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ10"/>
+  <dimension ref="A1:AK10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -542,6 +542,9 @@
       <c r="AJ1" s="1" t="n">
         <v>35</v>
       </c>
+      <c r="AK1" s="1" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -652,6 +655,9 @@
       <c r="AJ2" t="n">
         <v>-0.01689428661850001</v>
       </c>
+      <c r="AK2" t="n">
+        <v>-0.05194294912704575</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -762,6 +768,9 @@
       <c r="AJ3" t="n">
         <v>-0.1009327816087829</v>
       </c>
+      <c r="AK3" t="n">
+        <v>-0.1109028180600204</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -872,6 +881,9 @@
       <c r="AJ4" t="n">
         <v>-0.6546412431271356</v>
       </c>
+      <c r="AK4" t="n">
+        <v>-0.6653645473317041</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -982,6 +994,9 @@
       <c r="AJ5" t="n">
         <v>0.02142131361803112</v>
       </c>
+      <c r="AK5" t="n">
+        <v>0.02854772778650497</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1092,6 +1107,9 @@
       <c r="AJ6" t="n">
         <v>-0.03126834804644939</v>
       </c>
+      <c r="AK6" t="n">
+        <v>-0.02762187784241419</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1202,6 +1220,9 @@
       <c r="AJ7" t="n">
         <v>-0.01466544420076261</v>
       </c>
+      <c r="AK7" t="n">
+        <v>-0.01159113239652065</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1312,6 +1333,9 @@
       <c r="AJ8" t="n">
         <v>-0.03533810936818663</v>
       </c>
+      <c r="AK8" t="n">
+        <v>-0.02812633001130251</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1422,6 +1446,9 @@
       <c r="AJ9" t="n">
         <v>0.002701958431788948</v>
       </c>
+      <c r="AK9" t="n">
+        <v>0.002789255387303146</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1531,6 +1558,9 @@
       </c>
       <c r="AJ10" t="n">
         <v>0.005147784211437659</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0.004818203684333625</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_9.xlsx
+++ b/predicted_factors_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK10"/>
+  <dimension ref="A1:AL10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,6 +545,9 @@
       <c r="AK1" s="1" t="n">
         <v>36</v>
       </c>
+      <c r="AL1" s="1" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -658,6 +661,9 @@
       <c r="AK2" t="n">
         <v>-0.05194294912704575</v>
       </c>
+      <c r="AL2" t="n">
+        <v>-0.08535307749393567</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -771,6 +777,9 @@
       <c r="AK3" t="n">
         <v>-0.1109028180600204</v>
       </c>
+      <c r="AL3" t="n">
+        <v>-0.1209252297382189</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -884,6 +893,9 @@
       <c r="AK4" t="n">
         <v>-0.6653645473317041</v>
       </c>
+      <c r="AL4" t="n">
+        <v>-0.6749042459818361</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -997,6 +1009,9 @@
       <c r="AK5" t="n">
         <v>0.02854772778650497</v>
       </c>
+      <c r="AL5" t="n">
+        <v>0.0362846609583386</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1110,6 +1125,9 @@
       <c r="AK6" t="n">
         <v>-0.02762187784241419</v>
       </c>
+      <c r="AL6" t="n">
+        <v>-0.02485095542652791</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1223,6 +1241,9 @@
       <c r="AK7" t="n">
         <v>-0.01159113239652065</v>
       </c>
+      <c r="AL7" t="n">
+        <v>-0.009071885896637681</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1336,6 +1357,9 @@
       <c r="AK8" t="n">
         <v>-0.02812633001130251</v>
       </c>
+      <c r="AL8" t="n">
+        <v>-0.02235037648704605</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1449,6 +1473,9 @@
       <c r="AK9" t="n">
         <v>0.002789255387303146</v>
       </c>
+      <c r="AL9" t="n">
+        <v>0.00287089935083472</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1561,6 +1588,9 @@
       </c>
       <c r="AK10" t="n">
         <v>0.004818203684333625</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.004521324940587237</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_9.xlsx
+++ b/predicted_factors_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL10"/>
+  <dimension ref="A1:AM10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,6 +548,9 @@
       <c r="AL1" s="1" t="n">
         <v>37</v>
       </c>
+      <c r="AM1" s="1" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -664,6 +667,9 @@
       <c r="AL2" t="n">
         <v>-0.08535307749393567</v>
       </c>
+      <c r="AM2" t="n">
+        <v>-0.1167793763257515</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -780,6 +786,9 @@
       <c r="AL3" t="n">
         <v>-0.1209252297382189</v>
       </c>
+      <c r="AM3" t="n">
+        <v>-0.1308346621791514</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -896,6 +905,9 @@
       <c r="AL4" t="n">
         <v>-0.6749042459818361</v>
       </c>
+      <c r="AM4" t="n">
+        <v>-0.6834136486706643</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1012,6 +1024,9 @@
       <c r="AL5" t="n">
         <v>0.0362846609583386</v>
       </c>
+      <c r="AM5" t="n">
+        <v>0.0444195826418465</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1128,6 +1143,9 @@
       <c r="AL6" t="n">
         <v>-0.02485095542652791</v>
       </c>
+      <c r="AM6" t="n">
+        <v>-0.02286961858333253</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1244,6 +1262,9 @@
       <c r="AL7" t="n">
         <v>-0.009071885896637681</v>
       </c>
+      <c r="AM7" t="n">
+        <v>-0.007065747712049509</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1360,6 +1381,9 @@
       <c r="AL8" t="n">
         <v>-0.02235037648704605</v>
       </c>
+      <c r="AM8" t="n">
+        <v>-0.01788726028314497</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1476,6 +1500,9 @@
       <c r="AL9" t="n">
         <v>0.00287089935083472</v>
       </c>
+      <c r="AM9" t="n">
+        <v>0.002946600147764002</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1591,6 +1618,9 @@
       </c>
       <c r="AL10" t="n">
         <v>0.004521324940587237</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.004258125706303198</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_9.xlsx
+++ b/predicted_factors_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM10"/>
+  <dimension ref="A1:AN10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -551,6 +551,9 @@
       <c r="AM1" s="1" t="n">
         <v>38</v>
       </c>
+      <c r="AN1" s="1" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -670,6 +673,9 @@
       <c r="AM2" t="n">
         <v>-0.1167793763257515</v>
       </c>
+      <c r="AN2" t="n">
+        <v>-0.1459704967234043</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -789,6 +795,9 @@
       <c r="AM3" t="n">
         <v>-0.1308346621791514</v>
       </c>
+      <c r="AN3" t="n">
+        <v>-0.1404937594908843</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -908,6 +917,9 @@
       <c r="AM4" t="n">
         <v>-0.6834136486706643</v>
       </c>
+      <c r="AN4" t="n">
+        <v>-0.6910363206174761</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1027,6 +1039,9 @@
       <c r="AM5" t="n">
         <v>0.0444195826418465</v>
       </c>
+      <c r="AN5" t="n">
+        <v>0.05276404115227436</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1146,6 +1161,9 @@
       <c r="AM6" t="n">
         <v>-0.02286961858333253</v>
       </c>
+      <c r="AN6" t="n">
+        <v>-0.0215912935021782</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1265,6 +1283,9 @@
       <c r="AM7" t="n">
         <v>-0.007065747712049509</v>
       </c>
+      <c r="AN7" t="n">
+        <v>-0.00552818628957326</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1384,6 +1405,9 @@
       <c r="AM8" t="n">
         <v>-0.01788726028314497</v>
       </c>
+      <c r="AN8" t="n">
+        <v>-0.01460979407194418</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1503,6 +1527,9 @@
       <c r="AM9" t="n">
         <v>0.002946600147764002</v>
       </c>
+      <c r="AN9" t="n">
+        <v>0.003016245602216167</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1621,6 +1648,9 @@
       </c>
       <c r="AM10" t="n">
         <v>0.004258125706303198</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0.004028866379802662</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_9.xlsx
+++ b/predicted_factors_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN10"/>
+  <dimension ref="A1:AO10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -554,6 +554,9 @@
       <c r="AN1" s="1" t="n">
         <v>39</v>
       </c>
+      <c r="AO1" s="1" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -676,6 +679,9 @@
       <c r="AN2" t="n">
         <v>-0.1459704967234043</v>
       </c>
+      <c r="AO2" t="n">
+        <v>-0.1727584187142882</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -798,6 +804,9 @@
       <c r="AN3" t="n">
         <v>-0.1404937594908843</v>
       </c>
+      <c r="AO3" t="n">
+        <v>-0.1497912518590379</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -920,6 +929,9 @@
       <c r="AN4" t="n">
         <v>-0.6910363206174761</v>
       </c>
+      <c r="AO4" t="n">
+        <v>-0.6979050671638635</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1042,6 +1054,9 @@
       <c r="AN5" t="n">
         <v>0.05276404115227436</v>
       </c>
+      <c r="AO5" t="n">
+        <v>0.06115367312362659</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1164,6 +1179,9 @@
       <c r="AN6" t="n">
         <v>-0.0215912935021782</v>
       </c>
+      <c r="AO6" t="n">
+        <v>-0.02093043594141807</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1286,6 +1304,9 @@
       <c r="AN7" t="n">
         <v>-0.00552818628957326</v>
       </c>
+      <c r="AO7" t="n">
+        <v>-0.004413280245534473</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1408,6 +1429,9 @@
       <c r="AN8" t="n">
         <v>-0.01460979407194418</v>
       </c>
+      <c r="AO8" t="n">
+        <v>-0.01238956024917878</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1530,6 +1554,9 @@
       <c r="AN9" t="n">
         <v>0.003016245602216167</v>
       </c>
+      <c r="AO9" t="n">
+        <v>0.003079870082504143</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1651,6 +1678,9 @@
       </c>
       <c r="AN10" t="n">
         <v>0.004028866379802662</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.003833184785866527</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_9.xlsx
+++ b/predicted_factors_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO10"/>
+  <dimension ref="A1:AP10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,6 +557,9 @@
       <c r="AO1" s="1" t="n">
         <v>40</v>
       </c>
+      <c r="AP1" s="1" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -682,6 +685,9 @@
       <c r="AO2" t="n">
         <v>-0.1727584187142882</v>
       </c>
+      <c r="AP2" t="n">
+        <v>-0.197048019554148</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -807,6 +813,9 @@
       <c r="AO3" t="n">
         <v>-0.1497912518590379</v>
       </c>
+      <c r="AP3" t="n">
+        <v>-0.1586398628473739</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -932,6 +941,9 @@
       <c r="AO4" t="n">
         <v>-0.6979050671638635</v>
       </c>
+      <c r="AP4" t="n">
+        <v>-0.7041412838633271</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1057,6 +1069,9 @@
       <c r="AO5" t="n">
         <v>0.06115367312362659</v>
       </c>
+      <c r="AP5" t="n">
+        <v>0.06944771268720039</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1182,6 +1197,9 @@
       <c r="AO6" t="n">
         <v>-0.02093043594141807</v>
       </c>
+      <c r="AP6" t="n">
+        <v>-0.02080390350411512</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1307,6 +1325,9 @@
       <c r="AO7" t="n">
         <v>-0.004413280245534473</v>
       </c>
+      <c r="AP7" t="n">
+        <v>-0.003674751464683899</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1432,6 +1453,9 @@
       <c r="AO8" t="n">
         <v>-0.01238956024917878</v>
       </c>
+      <c r="AP8" t="n">
+        <v>-0.01109943371963115</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1557,6 +1581,9 @@
       <c r="AO9" t="n">
         <v>0.003079870082504143</v>
       </c>
+      <c r="AP9" t="n">
+        <v>0.003137626161783665</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1681,6 +1708,9 @@
       </c>
       <c r="AO10" t="n">
         <v>0.003833184785866527</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.003670189682081796</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_9.xlsx
+++ b/predicted_factors_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP10"/>
+  <dimension ref="A1:AQ10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,6 +560,9 @@
       <c r="AP1" s="1" t="n">
         <v>41</v>
       </c>
+      <c r="AQ1" s="1" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -688,6 +691,9 @@
       <c r="AP2" t="n">
         <v>-0.197048019554148</v>
       </c>
+      <c r="AQ2" t="n">
+        <v>-0.2188069842897468</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -816,6 +822,9 @@
       <c r="AP3" t="n">
         <v>-0.1586398628473739</v>
       </c>
+      <c r="AQ3" t="n">
+        <v>-0.1669741041524148</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -944,6 +953,9 @@
       <c r="AP4" t="n">
         <v>-0.7041412838633271</v>
       </c>
+      <c r="AQ4" t="n">
+        <v>-0.7098546242299162</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1072,6 +1084,9 @@
       <c r="AP5" t="n">
         <v>0.06944771268720039</v>
       </c>
+      <c r="AQ5" t="n">
+        <v>0.07752809710624443</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1200,6 +1215,9 @@
       <c r="AP6" t="n">
         <v>-0.02080390350411512</v>
       </c>
+      <c r="AQ6" t="n">
+        <v>-0.0211320749965871</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1328,6 +1346,9 @@
       <c r="AP7" t="n">
         <v>-0.003674751464683899</v>
       </c>
+      <c r="AQ7" t="n">
+        <v>-0.003266850023455831</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1456,6 +1477,9 @@
       <c r="AP8" t="n">
         <v>-0.01109943371963115</v>
       </c>
+      <c r="AQ8" t="n">
+        <v>-0.01061568434384769</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1584,6 +1608,9 @@
       <c r="AP9" t="n">
         <v>0.003137626161783665</v>
       </c>
+      <c r="AQ9" t="n">
+        <v>0.003189759293834488</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1711,6 +1738,9 @@
       </c>
       <c r="AP10" t="n">
         <v>0.003670189682081796</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0.003538551155928377</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_9.xlsx
+++ b/predicted_factors_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ10"/>
+  <dimension ref="A1:AR10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,6 +563,9 @@
       <c r="AQ1" s="1" t="n">
         <v>42</v>
       </c>
+      <c r="AR1" s="1" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -694,6 +697,9 @@
       <c r="AQ2" t="n">
         <v>-0.2188069842897468</v>
       </c>
+      <c r="AR2" t="n">
+        <v>-0.2380561841975329</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -825,6 +831,9 @@
       <c r="AQ3" t="n">
         <v>-0.1669741041524148</v>
       </c>
+      <c r="AR3" t="n">
+        <v>-0.1747480165076915</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -956,6 +965,9 @@
       <c r="AQ4" t="n">
         <v>-0.7098546242299162</v>
       </c>
+      <c r="AR4" t="n">
+        <v>-0.7151429396712904</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1087,6 +1099,9 @@
       <c r="AQ5" t="n">
         <v>0.07752809710624443</v>
       </c>
+      <c r="AR5" t="n">
+        <v>0.08529825598787634</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1218,6 +1233,9 @@
       <c r="AQ6" t="n">
         <v>-0.0211320749965871</v>
       </c>
+      <c r="AR6" t="n">
+        <v>-0.02183973474506604</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1349,6 +1367,9 @@
       <c r="AQ7" t="n">
         <v>-0.003266850023455831</v>
       </c>
+      <c r="AR7" t="n">
+        <v>-0.003145096313611069</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1480,6 +1501,9 @@
       <c r="AQ8" t="n">
         <v>-0.01061568434384769</v>
       </c>
+      <c r="AR8" t="n">
+        <v>-0.01081968774002082</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1611,6 +1635,9 @@
       <c r="AQ9" t="n">
         <v>0.003189759293834488</v>
       </c>
+      <c r="AR9" t="n">
+        <v>0.003236585381798219</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1741,6 +1768,9 @@
       </c>
       <c r="AQ10" t="n">
         <v>0.003538551155928377</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0.00343658646626565</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_9.xlsx
+++ b/predicted_factors_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR10"/>
+  <dimension ref="A1:AS10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -566,6 +566,9 @@
       <c r="AR1" s="1" t="n">
         <v>43</v>
       </c>
+      <c r="AS1" s="1" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -700,6 +703,9 @@
       <c r="AR2" t="n">
         <v>-0.2380561841975329</v>
       </c>
+      <c r="AS2" t="n">
+        <v>-0.2548606210523186</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -834,6 +840,9 @@
       <c r="AR3" t="n">
         <v>-0.1747480165076915</v>
       </c>
+      <c r="AS3" t="n">
+        <v>-0.1819329069820817</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -968,6 +977,9 @@
       <c r="AR4" t="n">
         <v>-0.7151429396712904</v>
       </c>
+      <c r="AS4" t="n">
+        <v>-0.7200924488039638</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1102,6 +1114,9 @@
       <c r="AR5" t="n">
         <v>0.08529825598787634</v>
       </c>
+      <c r="AS5" t="n">
+        <v>0.09268166191840461</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1236,6 +1251,9 @@
       <c r="AR6" t="n">
         <v>-0.02183973474506604</v>
       </c>
+      <c r="AS6" t="n">
+        <v>-0.02285674124302059</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1370,6 +1388,9 @@
       <c r="AR7" t="n">
         <v>-0.003145096313611069</v>
       </c>
+      <c r="AS7" t="n">
+        <v>-0.003266887549760229</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1504,6 +1525,9 @@
       <c r="AR8" t="n">
         <v>-0.01081968774002082</v>
       </c>
+      <c r="AS8" t="n">
+        <v>-0.01159927529290371</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1638,6 +1662,9 @@
       <c r="AR9" t="n">
         <v>0.003236585381798219</v>
       </c>
+      <c r="AS9" t="n">
+        <v>0.003278471100672174</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1771,6 +1798,9 @@
       </c>
       <c r="AR10" t="n">
         <v>0.00343658646626565</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0.003362340240152385</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_9.xlsx
+++ b/predicted_factors_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS10"/>
+  <dimension ref="A1:AT10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,6 +569,9 @@
       <c r="AS1" s="1" t="n">
         <v>44</v>
       </c>
+      <c r="AT1" s="1" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -706,6 +709,9 @@
       <c r="AS2" t="n">
         <v>-0.2548606210523186</v>
       </c>
+      <c r="AT2" t="n">
+        <v>-0.2693210103704555</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -843,6 +849,9 @@
       <c r="AS3" t="n">
         <v>-0.1819329069820817</v>
       </c>
+      <c r="AT3" t="n">
+        <v>-0.1885151249971342</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -980,6 +989,9 @@
       <c r="AS4" t="n">
         <v>-0.7200924488039638</v>
       </c>
+      <c r="AT4" t="n">
+        <v>-0.7247780962035929</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1117,6 +1129,9 @@
       <c r="AS5" t="n">
         <v>0.09268166191840461</v>
       </c>
+      <c r="AT5" t="n">
+        <v>0.09962021148871698</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1254,6 +1269,9 @@
       <c r="AS6" t="n">
         <v>-0.02285674124302059</v>
       </c>
+      <c r="AT6" t="n">
+        <v>-0.0241185005398398</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1391,6 +1409,9 @@
       <c r="AS7" t="n">
         <v>-0.003266887549760229</v>
       </c>
+      <c r="AT7" t="n">
+        <v>-0.00359197740405173</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1528,6 +1549,9 @@
       <c r="AS8" t="n">
         <v>-0.01159927529290371</v>
       </c>
+      <c r="AT8" t="n">
+        <v>-0.01284975550614588</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1665,6 +1689,9 @@
       <c r="AS9" t="n">
         <v>0.003278471100672174</v>
       </c>
+      <c r="AT9" t="n">
+        <v>0.003315816821265804</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1801,6 +1828,9 @@
       </c>
       <c r="AS10" t="n">
         <v>0.003362340240152385</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0.003313658243593215</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_9.xlsx
+++ b/predicted_factors_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT10"/>
+  <dimension ref="A1:AU10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,6 +572,9 @@
       <c r="AT1" s="1" t="n">
         <v>45</v>
       </c>
+      <c r="AU1" s="1" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -712,6 +715,9 @@
       <c r="AT2" t="n">
         <v>-0.2693210103704555</v>
       </c>
+      <c r="AU2" t="n">
+        <v>-0.2815660546103357</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -852,6 +858,9 @@
       <c r="AT3" t="n">
         <v>-0.1885151249971342</v>
       </c>
+      <c r="AU3" t="n">
+        <v>-0.1944939120188902</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -992,6 +1001,9 @@
       <c r="AT4" t="n">
         <v>-0.7247780962035929</v>
       </c>
+      <c r="AU4" t="n">
+        <v>-0.7292640636453364</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1132,6 +1144,9 @@
       <c r="AT5" t="n">
         <v>0.09962021148871698</v>
       </c>
+      <c r="AU5" t="n">
+        <v>0.1060724972026114</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1272,6 +1287,9 @@
       <c r="AT6" t="n">
         <v>-0.0241185005398398</v>
       </c>
+      <c r="AU6" t="n">
+        <v>-0.02556626534652739</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1412,6 +1430,9 @@
       <c r="AT7" t="n">
         <v>-0.00359197740405173</v>
       </c>
+      <c r="AU7" t="n">
+        <v>-0.004082838740106372</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1552,6 +1573,9 @@
       <c r="AT8" t="n">
         <v>-0.01284975550614588</v>
       </c>
+      <c r="AU8" t="n">
+        <v>-0.01447463942511023</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1692,6 +1716,9 @@
       <c r="AT9" t="n">
         <v>0.003315816821265804</v>
       </c>
+      <c r="AU9" t="n">
+        <v>0.003349041973365257</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1831,6 +1858,9 @@
       </c>
       <c r="AT10" t="n">
         <v>0.003313658243593215</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0.003288254209448012</v>
       </c>
     </row>
   </sheetData>
